--- a/app/data/historical.xlsx
+++ b/app/data/historical.xlsx
@@ -1,14 +1,32 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="EMPTY" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +417,37 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>msg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/app/data/historical.xlsx
+++ b/app/data/historical.xlsx
@@ -1,32 +1,14 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="EMPTY" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +19,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +27,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,37 +390,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>msg</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/app/data/historical.xlsx
+++ b/app/data/historical.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BTCUSDT_1D" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -64906,4 +64911,655 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45865.01991743934</v>
+      </c>
+      <c r="B2" t="n">
+        <v>110000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>110600.9534711122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>109681.5386192114</v>
+      </c>
+      <c r="E2" t="n">
+        <v>110187.8461159466</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45866.01991743934</v>
+      </c>
+      <c r="B3" t="n">
+        <v>110172.4137931034</v>
+      </c>
+      <c r="C3" t="n">
+        <v>110583.1224806886</v>
+      </c>
+      <c r="D3" t="n">
+        <v>109480.7411055708</v>
+      </c>
+      <c r="E3" t="n">
+        <v>109780.3206971157</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45867.01991743934</v>
+      </c>
+      <c r="B4" t="n">
+        <v>110344.8275862069</v>
+      </c>
+      <c r="C4" t="n">
+        <v>111039.0325280175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110102.8113691197</v>
+      </c>
+      <c r="E4" t="n">
+        <v>110491.2452847704</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45868.01991743934</v>
+      </c>
+      <c r="B5" t="n">
+        <v>110517.2413793103</v>
+      </c>
+      <c r="C5" t="n">
+        <v>111272.1260195185</v>
+      </c>
+      <c r="D5" t="n">
+        <v>109335.9638804275</v>
+      </c>
+      <c r="E5" t="n">
+        <v>110051.4061275653</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45869.01991743934</v>
+      </c>
+      <c r="B6" t="n">
+        <v>110689.6551724138</v>
+      </c>
+      <c r="C6" t="n">
+        <v>110992.0057245762</v>
+      </c>
+      <c r="D6" t="n">
+        <v>109988.4979619415</v>
+      </c>
+      <c r="E6" t="n">
+        <v>110640.4122685828</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45870.01991743934</v>
+      </c>
+      <c r="B7" t="n">
+        <v>110862.0689655172</v>
+      </c>
+      <c r="C7" t="n">
+        <v>111135.6120306745</v>
+      </c>
+      <c r="D7" t="n">
+        <v>109920.2837975345</v>
+      </c>
+      <c r="E7" t="n">
+        <v>110467.0580228593</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45871.01991743934</v>
+      </c>
+      <c r="B8" t="n">
+        <v>111034.4827586207</v>
+      </c>
+      <c r="C8" t="n">
+        <v>111475.3885752135</v>
+      </c>
+      <c r="D8" t="n">
+        <v>110378.7581873652</v>
+      </c>
+      <c r="E8" t="n">
+        <v>111231.8062706772</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45872.01991743934</v>
+      </c>
+      <c r="B9" t="n">
+        <v>111206.8965517241</v>
+      </c>
+      <c r="C9" t="n">
+        <v>111470.728448893</v>
+      </c>
+      <c r="D9" t="n">
+        <v>110371.2479107027</v>
+      </c>
+      <c r="E9" t="n">
+        <v>110957.4283031622</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45873.01991743934</v>
+      </c>
+      <c r="B10" t="n">
+        <v>111379.3103448276</v>
+      </c>
+      <c r="C10" t="n">
+        <v>111958.8173835937</v>
+      </c>
+      <c r="D10" t="n">
+        <v>110792.027067282</v>
+      </c>
+      <c r="E10" t="n">
+        <v>111099.8492433916</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45874.01991743934</v>
+      </c>
+      <c r="B11" t="n">
+        <v>111551.724137931</v>
+      </c>
+      <c r="C11" t="n">
+        <v>112299.1617386833</v>
+      </c>
+      <c r="D11" t="n">
+        <v>111219.6926482668</v>
+      </c>
+      <c r="E11" t="n">
+        <v>111691.2428587304</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45875.01991743934</v>
+      </c>
+      <c r="B12" t="n">
+        <v>111724.1379310345</v>
+      </c>
+      <c r="C12" t="n">
+        <v>112376.4685758763</v>
+      </c>
+      <c r="D12" t="n">
+        <v>111096.5785774208</v>
+      </c>
+      <c r="E12" t="n">
+        <v>111585.5140607197</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45876.01991743934</v>
+      </c>
+      <c r="B13" t="n">
+        <v>111896.5517241379</v>
+      </c>
+      <c r="C13" t="n">
+        <v>112336.2092278005</v>
+      </c>
+      <c r="D13" t="n">
+        <v>111470.762728552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>111850.5204361246</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45877.01991743934</v>
+      </c>
+      <c r="B14" t="n">
+        <v>112068.9655172414</v>
+      </c>
+      <c r="C14" t="n">
+        <v>112599.2435575969</v>
+      </c>
+      <c r="D14" t="n">
+        <v>111497.0093710098</v>
+      </c>
+      <c r="E14" t="n">
+        <v>111838.7100450338</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45878.01991743934</v>
+      </c>
+      <c r="B15" t="n">
+        <v>112241.3793103448</v>
+      </c>
+      <c r="C15" t="n">
+        <v>112538.293136403</v>
+      </c>
+      <c r="D15" t="n">
+        <v>111560.8453983962</v>
+      </c>
+      <c r="E15" t="n">
+        <v>112177.1305398291</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45879.01991743934</v>
+      </c>
+      <c r="B16" t="n">
+        <v>112413.7931034483</v>
+      </c>
+      <c r="C16" t="n">
+        <v>113382.8020117319</v>
+      </c>
+      <c r="D16" t="n">
+        <v>111868.096583315</v>
+      </c>
+      <c r="E16" t="n">
+        <v>112668.0702835532</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45880.01991743934</v>
+      </c>
+      <c r="B17" t="n">
+        <v>112586.2068965517</v>
+      </c>
+      <c r="C17" t="n">
+        <v>113590.5441892377</v>
+      </c>
+      <c r="D17" t="n">
+        <v>111836.5179447405</v>
+      </c>
+      <c r="E17" t="n">
+        <v>112823.0472174678</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45881.01991743934</v>
+      </c>
+      <c r="B18" t="n">
+        <v>112758.6206896552</v>
+      </c>
+      <c r="C18" t="n">
+        <v>113638.908789896</v>
+      </c>
+      <c r="D18" t="n">
+        <v>112383.3449481661</v>
+      </c>
+      <c r="E18" t="n">
+        <v>113149.7095244972</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45882.01991743934</v>
+      </c>
+      <c r="B19" t="n">
+        <v>112931.0344827586</v>
+      </c>
+      <c r="C19" t="n">
+        <v>113815.8542542139</v>
+      </c>
+      <c r="D19" t="n">
+        <v>112200.4593526218</v>
+      </c>
+      <c r="E19" t="n">
+        <v>113048.4815836181</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45883.01991743934</v>
+      </c>
+      <c r="B20" t="n">
+        <v>113103.4482758621</v>
+      </c>
+      <c r="C20" t="n">
+        <v>113787.0637869627</v>
+      </c>
+      <c r="D20" t="n">
+        <v>112307.0077434712</v>
+      </c>
+      <c r="E20" t="n">
+        <v>113069.8066476231</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45884.01991743934</v>
+      </c>
+      <c r="B21" t="n">
+        <v>113275.8620689655</v>
+      </c>
+      <c r="C21" t="n">
+        <v>113529.7559621708</v>
+      </c>
+      <c r="D21" t="n">
+        <v>112260.5419954863</v>
+      </c>
+      <c r="E21" t="n">
+        <v>113018.155212086</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45885.01991743934</v>
+      </c>
+      <c r="B22" t="n">
+        <v>113448.275862069</v>
+      </c>
+      <c r="C22" t="n">
+        <v>114250.4271093372</v>
+      </c>
+      <c r="D22" t="n">
+        <v>112839.9849625919</v>
+      </c>
+      <c r="E22" t="n">
+        <v>113696.1188624455</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45886.01991743934</v>
+      </c>
+      <c r="B23" t="n">
+        <v>113620.6896551724</v>
+      </c>
+      <c r="C23" t="n">
+        <v>114018.3369310425</v>
+      </c>
+      <c r="D23" t="n">
+        <v>112862.63952344</v>
+      </c>
+      <c r="E23" t="n">
+        <v>113650.4209692391</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45887.01991743934</v>
+      </c>
+      <c r="B24" t="n">
+        <v>113793.1034482759</v>
+      </c>
+      <c r="C24" t="n">
+        <v>114363.1382968773</v>
+      </c>
+      <c r="D24" t="n">
+        <v>113127.1425621714</v>
+      </c>
+      <c r="E24" t="n">
+        <v>113445.9922641759</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45888.01991743934</v>
+      </c>
+      <c r="B25" t="n">
+        <v>113965.5172413793</v>
+      </c>
+      <c r="C25" t="n">
+        <v>114348.8719360598</v>
+      </c>
+      <c r="D25" t="n">
+        <v>113527.6078516392</v>
+      </c>
+      <c r="E25" t="n">
+        <v>113927.4893506157</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45889.01991743934</v>
+      </c>
+      <c r="B26" t="n">
+        <v>114137.9310344828</v>
+      </c>
+      <c r="C26" t="n">
+        <v>114686.9234403369</v>
+      </c>
+      <c r="D26" t="n">
+        <v>113580.2697348336</v>
+      </c>
+      <c r="E26" t="n">
+        <v>114263.3174952016</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45890.01991743934</v>
+      </c>
+      <c r="B27" t="n">
+        <v>114310.3448275862</v>
+      </c>
+      <c r="C27" t="n">
+        <v>114932.1402317421</v>
+      </c>
+      <c r="D27" t="n">
+        <v>113956.5605023294</v>
+      </c>
+      <c r="E27" t="n">
+        <v>114306.9668838976</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45891.01991743934</v>
+      </c>
+      <c r="B28" t="n">
+        <v>114482.7586206897</v>
+      </c>
+      <c r="C28" t="n">
+        <v>115036.2530396916</v>
+      </c>
+      <c r="D28" t="n">
+        <v>113539.1711281925</v>
+      </c>
+      <c r="E28" t="n">
+        <v>114264.3339676955</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45892.01991743934</v>
+      </c>
+      <c r="B29" t="n">
+        <v>114655.1724137931</v>
+      </c>
+      <c r="C29" t="n">
+        <v>115272.3510382742</v>
+      </c>
+      <c r="D29" t="n">
+        <v>113765.0239791944</v>
+      </c>
+      <c r="E29" t="n">
+        <v>114389.0780429767</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45893.01991743934</v>
+      </c>
+      <c r="B30" t="n">
+        <v>114827.5862068966</v>
+      </c>
+      <c r="C30" t="n">
+        <v>115485.5268543889</v>
+      </c>
+      <c r="D30" t="n">
+        <v>114215.9120011251</v>
+      </c>
+      <c r="E30" t="n">
+        <v>114437.0959240197</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45894.01991743934</v>
+      </c>
+      <c r="B31" t="n">
+        <v>115000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>115408.4231810229</v>
+      </c>
+      <c r="D31" t="n">
+        <v>114106.9622095267</v>
+      </c>
+      <c r="E31" t="n">
+        <v>114672.7433671629</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>